--- a/analyses/00_InhousePanels/data/Dresden-Cancer_v1_gene-list.xlsx
+++ b/analyses/00_InhousePanels/data/Dresden-Cancer_v1_gene-list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{44B6109E-135F-4F4D-A35F-083CD258FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF577163-2A7F-483A-9FCB-B971D1C268D3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{44B6109E-135F-4F4D-A35F-083CD258FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6FCBFA-9C29-4549-9F1D-12A5DA68F3A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C95C6FED-A9B1-47B9-B1E7-71E7CD4356DD}"/>
+    <workbookView xWindow="-38520" yWindow="-255" windowWidth="38640" windowHeight="21120" xr2:uid="{C95C6FED-A9B1-47B9-B1E7-71E7CD4356DD}"/>
   </bookViews>
   <sheets>
     <sheet name="genes" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
     <t>UNC13D</t>
   </si>
   <si>
-    <t>Genes</t>
+    <t>genes</t>
   </si>
 </sst>
 </file>
@@ -869,6 +869,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
